--- a/StructureDefinition-PacienteHLF.xlsx
+++ b/StructureDefinition-PacienteHLF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T21:42:18-04:00</t>
+    <t>2023-06-11T16:05:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PacienteHLF.xlsx
+++ b/StructureDefinition-PacienteHLF.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$159</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5606" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="797">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1658,7 +1658,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual</t>
+    <t>Dirección del Paciente</t>
   </si>
   <si>
     <t>An address for the individual.</t>
@@ -1680,6 +1680,250 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>Definición del tipo de domicilio home | work | temp | old (requerido)</t>
+  </si>
+  <si>
+    <t>Se especifica el tipo de dirección notificada. Esto debe ser segun los códigos definidos por HL7 FHIR</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R5/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|5.0.0</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Calle o avenida, numero y casa o depto</t>
+  </si>
+  <si>
+    <t>Aquí se escribe toda la dirección completa</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Campo para Comuna de residencia</t>
+  </si>
+  <si>
+    <t>Campo para Comuna de residencia.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>Campo para Provincia de Residencia</t>
+  </si>
+  <si>
+    <t>Campo para Provincia de Residencia. Se usa el valueSet de códigos de provicias definidos a nivel naciona.</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Campo para la Región</t>
+  </si>
+  <si>
+    <t>Campo Región. Se usa el valueSet de códigos de regiones definidos a nivel naciona.</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Campo para País de Residencia</t>
+  </si>
+  <si>
+    <t>ISO 3166 2- or 3- letter codes MAY be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -2552,7 +2796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP147"/>
+  <dimension ref="A1:AP159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2599,7 +2843,7 @@
     <col min="38" max="38" width="153.5546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="30.4140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="102.75390625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="8.40234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -14692,13 +14936,13 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>37</v>
@@ -14820,7 +15064,7 @@
         <v>46</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>37</v>
@@ -14829,18 +15073,16 @@
         <v>37</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>539</v>
+        <v>107</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>540</v>
+        <v>108</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>37</v>
       </c>
@@ -14864,11 +15106,13 @@
         <v>37</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>543</v>
+        <v>37</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>37</v>
@@ -14886,7 +15130,7 @@
         <v>37</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>35</v>
@@ -14895,25 +15139,25 @@
         <v>46</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>545</v>
+        <v>37</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>546</v>
+        <v>37</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>37</v>
@@ -14921,21 +15165,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>37</v>
@@ -14947,15 +15191,17 @@
         <v>37</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>37</v>
@@ -14992,31 +15238,31 @@
         <v>37</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>37</v>
@@ -15039,44 +15285,46 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>172</v>
+        <v>541</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>173</v>
+        <v>542</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>37</v>
       </c>
@@ -15088,7 +15336,7 @@
         <v>37</v>
       </c>
       <c r="T105" t="s" s="2">
-        <v>37</v>
+        <v>545</v>
       </c>
       <c r="U105" t="s" s="2">
         <v>37</v>
@@ -15100,49 +15348,47 @@
         <v>37</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>37</v>
+        <v>546</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>116</v>
+        <v>547</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>37</v>
@@ -15151,7 +15397,7 @@
         <v>37</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>37</v>
+        <v>548</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>37</v>
@@ -15170,7 +15416,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>46</v>
@@ -15185,20 +15431,18 @@
         <v>47</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>178</v>
+        <v>550</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>179</v>
+        <v>551</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>37</v>
       </c>
@@ -15210,7 +15454,7 @@
         <v>37</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>37</v>
+        <v>553</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>37</v>
@@ -15222,13 +15466,13 @@
         <v>37</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>37</v>
+        <v>555</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>37</v>
@@ -15246,13 +15490,13 @@
         <v>37</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>182</v>
+        <v>556</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>37</v>
@@ -15264,7 +15508,7 @@
         <v>37</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>37</v>
@@ -15273,7 +15517,7 @@
         <v>37</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>184</v>
+        <v>557</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>37</v>
@@ -15281,10 +15525,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15304,19 +15548,23 @@
         <v>37</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>107</v>
+        <v>559</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>37</v>
       </c>
@@ -15328,7 +15576,7 @@
         <v>37</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>37</v>
+        <v>562</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>37</v>
@@ -15364,7 +15612,7 @@
         <v>37</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>109</v>
+        <v>563</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>35</v>
@@ -15373,16 +15621,16 @@
         <v>46</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>37</v>
@@ -15391,7 +15639,7 @@
         <v>37</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>37</v>
+        <v>564</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>37</v>
@@ -15399,43 +15647,41 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>172</v>
+        <v>566</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>37</v>
@@ -15448,7 +15694,7 @@
         <v>37</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>37</v>
+        <v>568</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>37</v>
@@ -15472,19 +15718,19 @@
         <v>37</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>116</v>
+        <v>569</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>35</v>
@@ -15496,13 +15742,13 @@
         <v>37</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>111</v>
+        <v>570</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>37</v>
@@ -15511,7 +15757,7 @@
         <v>37</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>37</v>
+        <v>571</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>37</v>
@@ -15519,14 +15765,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>37</v>
+        <v>573</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15536,7 +15782,7 @@
         <v>46</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>37</v>
@@ -15545,20 +15791,16 @@
         <v>47</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>37</v>
       </c>
@@ -15570,7 +15812,7 @@
         <v>37</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>37</v>
+        <v>576</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>37</v>
@@ -15606,7 +15848,7 @@
         <v>37</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>195</v>
+        <v>577</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>35</v>
@@ -15624,7 +15866,7 @@
         <v>37</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>196</v>
+        <v>578</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>37</v>
@@ -15633,7 +15875,7 @@
         <v>37</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>197</v>
+        <v>579</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>37</v>
@@ -15641,14 +15883,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>37</v>
+        <v>581</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15658,7 +15900,7 @@
         <v>46</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>37</v>
@@ -15670,13 +15912,13 @@
         <v>200</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>201</v>
+        <v>582</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>202</v>
+        <v>583</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>203</v>
+        <v>584</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15690,7 +15932,7 @@
         <v>37</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>37</v>
+        <v>585</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>37</v>
@@ -15726,7 +15968,7 @@
         <v>37</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>204</v>
+        <v>586</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>35</v>
@@ -15744,7 +15986,7 @@
         <v>37</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>205</v>
+        <v>587</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>37</v>
@@ -15753,7 +15995,7 @@
         <v>37</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>206</v>
+        <v>588</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>37</v>
@@ -15761,24 +16003,24 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>37</v>
+        <v>590</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>37</v>
@@ -15787,18 +16029,16 @@
         <v>47</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>37</v>
       </c>
@@ -15846,7 +16086,7 @@
         <v>37</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>213</v>
+        <v>593</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>35</v>
@@ -15855,7 +16095,7 @@
         <v>46</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>58</v>
@@ -15864,7 +16104,7 @@
         <v>37</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>215</v>
+        <v>594</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>37</v>
@@ -15873,7 +16113,7 @@
         <v>37</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>216</v>
+        <v>595</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>37</v>
@@ -15881,18 +16121,18 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>37</v>
+        <v>597</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>46</v>
@@ -15910,15 +16150,13 @@
         <v>200</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>37</v>
       </c>
@@ -15930,7 +16168,7 @@
         <v>37</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>37</v>
@@ -15966,7 +16204,7 @@
         <v>37</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>222</v>
+        <v>601</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>35</v>
@@ -15975,7 +16213,7 @@
         <v>46</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>58</v>
@@ -15984,7 +16222,7 @@
         <v>37</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>223</v>
+        <v>602</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>37</v>
@@ -15993,7 +16231,7 @@
         <v>37</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>224</v>
+        <v>603</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>37</v>
@@ -16001,10 +16239,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16018,7 +16256,7 @@
         <v>46</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>37</v>
@@ -16027,20 +16265,18 @@
         <v>47</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>228</v>
+        <v>605</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>229</v>
+        <v>605</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>37</v>
       </c>
@@ -16088,7 +16324,7 @@
         <v>37</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>232</v>
+        <v>607</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>35</v>
@@ -16106,7 +16342,7 @@
         <v>37</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>233</v>
+        <v>608</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>37</v>
@@ -16115,7 +16351,7 @@
         <v>37</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>234</v>
+        <v>609</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>37</v>
@@ -16123,10 +16359,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16149,19 +16385,17 @@
         <v>47</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>237</v>
+        <v>611</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>240</v>
+        <v>613</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>37</v>
@@ -16174,7 +16408,7 @@
         <v>37</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>37</v>
+        <v>614</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>37</v>
@@ -16210,7 +16444,7 @@
         <v>37</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>241</v>
+        <v>615</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>35</v>
@@ -16228,7 +16462,7 @@
         <v>37</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>242</v>
+        <v>449</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>37</v>
@@ -16237,7 +16471,7 @@
         <v>37</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>243</v>
+        <v>616</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>37</v>
@@ -16245,10 +16479,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16262,7 +16496,7 @@
         <v>46</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>37</v>
@@ -16271,19 +16505,17 @@
         <v>37</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>562</v>
+        <v>165</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>37</v>
@@ -16308,13 +16540,11 @@
         <v>37</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>37</v>
+        <v>622</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>37</v>
@@ -16332,7 +16562,7 @@
         <v>37</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>35</v>
@@ -16350,16 +16580,16 @@
         <v>37</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>567</v>
+        <v>623</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>111</v>
+        <v>624</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>37</v>
@@ -16367,10 +16597,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16381,7 +16611,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>37</v>
@@ -16393,20 +16623,16 @@
         <v>37</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>570</v>
+        <v>48</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>571</v>
+        <v>107</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>37</v>
       </c>
@@ -16454,34 +16680,34 @@
         <v>37</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>569</v>
+        <v>109</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>575</v>
+        <v>111</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>576</v>
+        <v>37</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>577</v>
+        <v>37</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>37</v>
@@ -16489,14 +16715,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16515,20 +16741,18 @@
         <v>37</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>579</v>
+        <v>93</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>580</v>
+        <v>172</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>581</v>
+        <v>173</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>37</v>
       </c>
@@ -16564,19 +16788,19 @@
         <v>37</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>578</v>
+        <v>116</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>35</v>
@@ -16588,19 +16812,19 @@
         <v>37</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>584</v>
+        <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>585</v>
+        <v>111</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>37</v>
@@ -16611,10 +16835,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16622,7 +16846,7 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>46</v>
@@ -16634,19 +16858,23 @@
         <v>37</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>37</v>
       </c>
@@ -16694,25 +16922,25 @@
         <v>37</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>37</v>
@@ -16721,7 +16949,7 @@
         <v>37</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>37</v>
@@ -16729,21 +16957,21 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>37</v>
@@ -16755,17 +16983,15 @@
         <v>37</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>37</v>
@@ -16814,19 +17040,19 @@
         <v>37</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>37</v>
@@ -16849,14 +17075,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>589</v>
+        <v>171</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16869,26 +17095,24 @@
         <v>37</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>590</v>
+        <v>172</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>591</v>
+        <v>173</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O120" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>37</v>
       </c>
@@ -16924,19 +17148,19 @@
         <v>37</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>592</v>
+        <v>116</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>35</v>
@@ -16954,7 +17178,7 @@
         <v>37</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>37</v>
@@ -16971,10 +17195,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16985,7 +17209,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>37</v>
@@ -16994,20 +17218,22 @@
         <v>37</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O121" t="s" s="2">
-        <v>596</v>
+        <v>194</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>37</v>
@@ -17032,13 +17258,13 @@
         <v>37</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>542</v>
+        <v>37</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>597</v>
+        <v>37</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>598</v>
+        <v>37</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>37</v>
@@ -17056,13 +17282,13 @@
         <v>37</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>593</v>
+        <v>195</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>37</v>
@@ -17074,16 +17300,16 @@
         <v>37</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>599</v>
+        <v>196</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>600</v>
+        <v>197</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>37</v>
@@ -17091,10 +17317,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17114,21 +17340,21 @@
         <v>37</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>602</v>
+        <v>201</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>37</v>
       </c>
@@ -17176,7 +17402,7 @@
         <v>37</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>601</v>
+        <v>204</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>35</v>
@@ -17185,7 +17411,7 @@
         <v>46</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>605</v>
+        <v>37</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>58</v>
@@ -17194,16 +17420,16 @@
         <v>37</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>376</v>
+        <v>205</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>606</v>
+        <v>206</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>37</v>
@@ -17211,10 +17437,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17222,10 +17448,10 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>37</v>
@@ -17234,22 +17460,20 @@
         <v>37</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>452</v>
+        <v>66</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>456</v>
+        <v>211</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>37</v>
@@ -17298,16 +17522,16 @@
         <v>37</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>607</v>
+        <v>213</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>605</v>
+        <v>214</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>58</v>
@@ -17316,16 +17540,16 @@
         <v>37</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>457</v>
+        <v>215</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>611</v>
+        <v>216</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>37</v>
@@ -17333,10 +17557,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17344,7 +17568,7 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>46</v>
@@ -17356,20 +17580,20 @@
         <v>37</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>615</v>
+        <v>221</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>37</v>
@@ -17418,7 +17642,7 @@
         <v>37</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>612</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>35</v>
@@ -17427,7 +17651,7 @@
         <v>46</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>605</v>
+        <v>214</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>58</v>
@@ -17436,16 +17660,16 @@
         <v>37</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>534</v>
+        <v>223</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>616</v>
+        <v>224</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>37</v>
@@ -17453,10 +17677,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17476,20 +17700,22 @@
         <v>37</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>499</v>
+        <v>228</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O125" t="s" s="2">
-        <v>619</v>
+        <v>231</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>37</v>
@@ -17514,13 +17740,13 @@
         <v>37</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>503</v>
+        <v>37</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>504</v>
+        <v>37</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>37</v>
@@ -17538,7 +17764,7 @@
         <v>37</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>617</v>
+        <v>232</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>35</v>
@@ -17556,16 +17782,16 @@
         <v>37</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>505</v>
+        <v>233</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>620</v>
+        <v>234</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>37</v>
@@ -17573,10 +17799,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17596,20 +17822,22 @@
         <v>37</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>354</v>
+        <v>200</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>622</v>
+        <v>237</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O126" t="s" s="2">
-        <v>624</v>
+        <v>240</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>37</v>
@@ -17658,7 +17886,7 @@
         <v>37</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>621</v>
+        <v>241</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>35</v>
@@ -17667,7 +17895,7 @@
         <v>46</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>605</v>
+        <v>37</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>58</v>
@@ -17676,16 +17904,16 @@
         <v>37</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>625</v>
+        <v>242</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>626</v>
+        <v>243</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>37</v>
@@ -17693,10 +17921,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17719,16 +17947,20 @@
         <v>37</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>347</v>
+        <v>641</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>37</v>
       </c>
@@ -17776,7 +18008,7 @@
         <v>37</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>35</v>
@@ -17794,7 +18026,7 @@
         <v>37</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>37</v>
@@ -17803,7 +18035,7 @@
         <v>111</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>37</v>
+        <v>647</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>37</v>
@@ -17811,10 +18043,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17837,19 +18069,19 @@
         <v>37</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>37</v>
@@ -17898,7 +18130,7 @@
         <v>37</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>35</v>
@@ -17916,16 +18148,16 @@
         <v>37</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>638</v>
+        <v>111</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>37</v>
+        <v>656</v>
       </c>
       <c r="AP128" t="s" s="2">
         <v>37</v>
@@ -17933,10 +18165,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17947,7 +18179,7 @@
         <v>35</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>37</v>
@@ -17959,16 +18191,20 @@
         <v>37</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>200</v>
+        <v>658</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>107</v>
+        <v>659</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>662</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>37</v>
       </c>
@@ -18016,31 +18252,31 @@
         <v>37</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>109</v>
+        <v>657</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>37</v>
+        <v>663</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN129" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>37</v>
@@ -18051,21 +18287,21 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>37</v>
@@ -18077,17 +18313,15 @@
         <v>37</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>37</v>
@@ -18136,19 +18370,19 @@
         <v>37</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>37</v>
@@ -18171,14 +18405,14 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>589</v>
+        <v>171</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -18191,26 +18425,24 @@
         <v>37</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>590</v>
+        <v>172</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>591</v>
+        <v>173</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O131" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>37</v>
       </c>
@@ -18258,7 +18490,7 @@
         <v>37</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>592</v>
+        <v>116</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>35</v>
@@ -18276,7 +18508,7 @@
         <v>37</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>37</v>
@@ -18293,45 +18525,45 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>37</v>
+        <v>668</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>645</v>
+        <v>174</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>646</v>
+        <v>280</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>37</v>
@@ -18356,13 +18588,13 @@
         <v>37</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>37</v>
@@ -18380,34 +18612,34 @@
         <v>37</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>647</v>
+        <v>91</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>648</v>
+        <v>37</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>649</v>
+        <v>37</v>
       </c>
       <c r="AP132" t="s" s="2">
         <v>37</v>
@@ -18415,10 +18647,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18429,7 +18661,7 @@
         <v>35</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>37</v>
@@ -18441,19 +18673,17 @@
         <v>37</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>653</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>37</v>
@@ -18478,13 +18708,13 @@
         <v>37</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>37</v>
+        <v>621</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>37</v>
+        <v>676</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>37</v>
+        <v>677</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>37</v>
@@ -18502,13 +18732,13 @@
         <v>37</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>37</v>
@@ -18520,16 +18750,16 @@
         <v>37</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>656</v>
+        <v>111</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="AP133" t="s" s="2">
         <v>37</v>
@@ -18537,14 +18767,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>659</v>
+        <v>37</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18554,7 +18784,7 @@
         <v>46</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>37</v>
@@ -18563,18 +18793,18 @@
         <v>37</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O134" s="2"/>
+        <v>682</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>683</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>37</v>
       </c>
@@ -18622,16 +18852,16 @@
         <v>37</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>37</v>
+        <v>684</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>58</v>
@@ -18640,7 +18870,7 @@
         <v>37</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>663</v>
+        <v>376</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>37</v>
@@ -18649,7 +18879,7 @@
         <v>111</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>37</v>
@@ -18657,10 +18887,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18671,7 +18901,7 @@
         <v>35</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>37</v>
@@ -18683,16 +18913,20 @@
         <v>37</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>48</v>
+        <v>452</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>107</v>
+        <v>687</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P135" t="s" s="2">
         <v>37</v>
       </c>
@@ -18740,34 +18974,34 @@
         <v>37</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>109</v>
+        <v>686</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>110</v>
+        <v>684</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AM135" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AO135" t="s" s="2">
-        <v>37</v>
+        <v>690</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>37</v>
@@ -18775,21 +19009,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>37</v>
@@ -18801,18 +19035,18 @@
         <v>37</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>93</v>
+        <v>529</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>172</v>
+        <v>692</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O136" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>694</v>
+      </c>
       <c r="P136" t="s" s="2">
         <v>37</v>
       </c>
@@ -18848,46 +19082,46 @@
         <v>37</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>116</v>
+        <v>691</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>37</v>
+        <v>684</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL136" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN136" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AM136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AO136" t="s" s="2">
-        <v>37</v>
+        <v>695</v>
       </c>
       <c r="AP136" t="s" s="2">
         <v>37</v>
@@ -18895,10 +19129,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18918,21 +19152,21 @@
         <v>37</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>668</v>
+        <v>499</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O137" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>698</v>
+      </c>
       <c r="P137" t="s" s="2">
         <v>37</v>
       </c>
@@ -18956,13 +19190,13 @@
         <v>37</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>37</v>
+        <v>503</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>37</v>
+        <v>504</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>37</v>
@@ -18980,7 +19214,7 @@
         <v>37</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>35</v>
@@ -18989,7 +19223,7 @@
         <v>46</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>672</v>
+        <v>37</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>58</v>
@@ -18998,16 +19232,16 @@
         <v>37</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>91</v>
+        <v>505</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>37</v>
+        <v>699</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>37</v>
@@ -19015,10 +19249,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19038,21 +19272,21 @@
         <v>37</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>37</v>
       </c>
@@ -19076,13 +19310,13 @@
         <v>37</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>542</v>
+        <v>37</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>677</v>
+        <v>37</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>678</v>
+        <v>37</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>37</v>
@@ -19100,7 +19334,7 @@
         <v>37</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>35</v>
@@ -19109,7 +19343,7 @@
         <v>46</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>37</v>
+        <v>684</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>58</v>
@@ -19118,16 +19352,16 @@
         <v>37</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>91</v>
+        <v>704</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>37</v>
+        <v>705</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>37</v>
@@ -19135,10 +19369,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19158,20 +19392,18 @@
         <v>37</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>37</v>
@@ -19220,7 +19452,7 @@
         <v>37</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>35</v>
@@ -19229,7 +19461,7 @@
         <v>46</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>685</v>
+        <v>37</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>58</v>
@@ -19238,13 +19470,13 @@
         <v>37</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>37</v>
@@ -19255,10 +19487,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19266,10 +19498,10 @@
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>37</v>
@@ -19278,21 +19510,23 @@
         <v>37</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>200</v>
+        <v>658</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>713</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>714</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>37</v>
       </c>
@@ -19340,16 +19574,16 @@
         <v>37</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>685</v>
+        <v>37</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>58</v>
@@ -19358,13 +19592,13 @@
         <v>37</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>91</v>
+        <v>715</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>37</v>
+        <v>716</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>37</v>
+        <v>717</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>37</v>
@@ -19375,10 +19609,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19398,23 +19632,19 @@
         <v>37</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>354</v>
+        <v>200</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>693</v>
+        <v>107</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>37</v>
       </c>
@@ -19462,7 +19692,7 @@
         <v>37</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>692</v>
+        <v>109</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>35</v>
@@ -19471,22 +19701,22 @@
         <v>46</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>625</v>
+        <v>111</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>697</v>
+        <v>37</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>37</v>
@@ -19497,14 +19727,14 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19517,26 +19747,24 @@
         <v>37</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>579</v>
+        <v>93</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>699</v>
+        <v>172</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>700</v>
+        <v>173</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>37</v>
       </c>
@@ -19584,7 +19812,7 @@
         <v>37</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>698</v>
+        <v>116</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>35</v>
@@ -19596,19 +19824,19 @@
         <v>37</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>703</v>
+        <v>111</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>37</v>
@@ -19619,42 +19847,46 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>37</v>
+        <v>668</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>107</v>
+        <v>669</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>37</v>
       </c>
@@ -19702,25 +19934,25 @@
         <v>37</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>109</v>
+        <v>671</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>37</v>
@@ -19737,21 +19969,21 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>37</v>
@@ -19763,18 +19995,20 @@
         <v>37</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>172</v>
+        <v>722</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>173</v>
+        <v>723</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O144" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>725</v>
+      </c>
       <c r="P144" t="s" s="2">
         <v>37</v>
       </c>
@@ -19798,13 +20032,13 @@
         <v>37</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>37</v>
@@ -19822,34 +20056,34 @@
         <v>37</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>116</v>
+        <v>721</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>111</v>
+        <v>726</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>37</v>
+        <v>727</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>37</v>
+        <v>728</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>37</v>
@@ -19857,45 +20091,45 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>589</v>
+        <v>37</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>590</v>
+        <v>730</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>591</v>
+        <v>731</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>174</v>
+        <v>732</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>280</v>
+        <v>733</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>37</v>
@@ -19944,34 +20178,34 @@
         <v>37</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>592</v>
+        <v>729</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>91</v>
+        <v>734</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>37</v>
+        <v>735</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>37</v>
+        <v>736</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>37</v>
@@ -19979,42 +20213,42 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>37</v>
+        <v>738</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>708</v>
+        <v>354</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -20064,13 +20298,13 @@
         <v>37</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>37</v>
@@ -20082,7 +20316,7 @@
         <v>37</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>289</v>
+        <v>742</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>37</v>
@@ -20091,7 +20325,7 @@
         <v>111</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>37</v>
@@ -20099,10 +20333,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20110,7 +20344,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>46</v>
@@ -20122,16 +20356,16 @@
         <v>37</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>713</v>
+        <v>107</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>714</v>
+        <v>108</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20158,65 +20392,1507 @@
         <v>37</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP147" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP148" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP149" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP150" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO151" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP151" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO152" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP152" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="P153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AO153" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP153" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="P154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO154" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP154" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP155" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO156" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP156" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO157" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP157" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="O158" s="2"/>
+      <c r="P158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN158" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO158" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AP158" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X159" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="Y147" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
+      <c r="Y159" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN147" t="s" s="2">
+      <c r="AK159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN159" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AO147" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP147" t="s" s="2">
+      <c r="AO159" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP159" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP147">
+  <autoFilter ref="A1:AP159">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20226,7 +21902,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI146">
+  <conditionalFormatting sqref="A2:AI158">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
